--- a/data_with_distances.xlsx
+++ b/data_with_distances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872286D-5309-4C15-A6D5-A3FF11F61952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5E2B8D-2F65-48EA-AE7C-0B8135E4A72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
